--- a/Code/Results/Cases/Case_3_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_202/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003050582950998</v>
+        <v>1.026037100109277</v>
       </c>
       <c r="D2">
-        <v>1.018903489963102</v>
+        <v>1.03005174074101</v>
       </c>
       <c r="E2">
-        <v>1.009127273438525</v>
+        <v>1.026320117792564</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04179850270475</v>
+        <v>1.032549613526556</v>
       </c>
       <c r="J2">
-        <v>1.025140432879403</v>
+        <v>1.031202777825712</v>
       </c>
       <c r="K2">
-        <v>1.030105604131352</v>
+        <v>1.032863871900083</v>
       </c>
       <c r="L2">
-        <v>1.020460898667356</v>
+        <v>1.02914310931884</v>
       </c>
       <c r="N2">
-        <v>1.026596249879344</v>
+        <v>1.032667204050842</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00659850219245</v>
+        <v>1.0267905934845</v>
       </c>
       <c r="D3">
-        <v>1.021328002684853</v>
+        <v>1.030587159621844</v>
       </c>
       <c r="E3">
-        <v>1.011890311438743</v>
+        <v>1.026954644493895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042608030127473</v>
+        <v>1.032676756920272</v>
       </c>
       <c r="J3">
-        <v>1.026910887520828</v>
+        <v>1.031596870503527</v>
       </c>
       <c r="K3">
-        <v>1.03169507112865</v>
+        <v>1.033208298636306</v>
       </c>
       <c r="L3">
-        <v>1.022373280880673</v>
+        <v>1.029585594238767</v>
       </c>
       <c r="N3">
-        <v>1.028369218769433</v>
+        <v>1.033061856385457</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008854015490452</v>
+        <v>1.027278776838372</v>
       </c>
       <c r="D4">
-        <v>1.022872168628618</v>
+        <v>1.030934093976628</v>
       </c>
       <c r="E4">
-        <v>1.013652566918308</v>
+        <v>1.027366159003453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043114475946377</v>
+        <v>1.03275811027529</v>
       </c>
       <c r="J4">
-        <v>1.028033914677538</v>
+        <v>1.031851812767169</v>
       </c>
       <c r="K4">
-        <v>1.032702166631033</v>
+        <v>1.033430937701247</v>
       </c>
       <c r="L4">
-        <v>1.023588963328487</v>
+        <v>1.029872155688618</v>
       </c>
       <c r="N4">
-        <v>1.029493840753518</v>
+        <v>1.033317160696356</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009792868197753</v>
+        <v>1.027484156211686</v>
       </c>
       <c r="D5">
-        <v>1.023515565571814</v>
+        <v>1.031080058759029</v>
       </c>
       <c r="E5">
-        <v>1.014387442585147</v>
+        <v>1.027539381090952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043323286423992</v>
+        <v>1.032792090962818</v>
       </c>
       <c r="J5">
-        <v>1.028500746601366</v>
+        <v>1.031958974245698</v>
       </c>
       <c r="K5">
-        <v>1.033120527620525</v>
+        <v>1.033524479218846</v>
       </c>
       <c r="L5">
-        <v>1.02409494472664</v>
+        <v>1.029992683042867</v>
       </c>
       <c r="N5">
-        <v>1.029961335632225</v>
+        <v>1.033424474356476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009949964051383</v>
+        <v>1.027518648879618</v>
       </c>
       <c r="D6">
-        <v>1.023623260123658</v>
+        <v>1.031104573492119</v>
       </c>
       <c r="E6">
-        <v>1.014510485398363</v>
+        <v>1.027568478764328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04335810792288</v>
+        <v>1.032797783531667</v>
       </c>
       <c r="J6">
-        <v>1.028578822888992</v>
+        <v>1.031976966136061</v>
       </c>
       <c r="K6">
-        <v>1.033190480623111</v>
+        <v>1.033540181931418</v>
       </c>
       <c r="L6">
-        <v>1.024179605982876</v>
+        <v>1.030012923409556</v>
       </c>
       <c r="N6">
-        <v>1.030039522797134</v>
+        <v>1.033442491797387</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008866596939645</v>
+        <v>1.027281520552146</v>
       </c>
       <c r="D7">
-        <v>1.022880788231316</v>
+        <v>1.030936043921352</v>
       </c>
       <c r="E7">
-        <v>1.013662409643604</v>
+        <v>1.027368472738143</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043117282111993</v>
+        <v>1.032758565193318</v>
       </c>
       <c r="J7">
-        <v>1.028040173138577</v>
+        <v>1.03185324472969</v>
       </c>
       <c r="K7">
-        <v>1.032707776393247</v>
+        <v>1.033432187829103</v>
       </c>
       <c r="L7">
-        <v>1.023595744130246</v>
+        <v>1.02987376595928</v>
       </c>
       <c r="N7">
-        <v>1.02950010810229</v>
+        <v>1.033318594692428</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004258111524015</v>
+        <v>1.026291616576448</v>
       </c>
       <c r="D8">
-        <v>1.019728051784745</v>
+        <v>1.030232586980806</v>
       </c>
       <c r="E8">
-        <v>1.010066454392851</v>
+        <v>1.026534364585581</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042075720139894</v>
+        <v>1.032592771635563</v>
       </c>
       <c r="J8">
-        <v>1.025743511962076</v>
+        <v>1.031335975301738</v>
       </c>
       <c r="K8">
-        <v>1.0306472637721</v>
+        <v>1.032980318941569</v>
       </c>
       <c r="L8">
-        <v>1.021111774028181</v>
+        <v>1.02929259770862</v>
       </c>
       <c r="N8">
-        <v>1.027200185403488</v>
+        <v>1.032800590682556</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9958168134850603</v>
+        <v>1.024552137262274</v>
       </c>
       <c r="D9">
-        <v>1.013977501931355</v>
+        <v>1.028996787340949</v>
       </c>
       <c r="E9">
-        <v>1.003526460273667</v>
+        <v>1.025071797908159</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040104490725003</v>
+        <v>1.032293632875526</v>
       </c>
       <c r="J9">
-        <v>1.021518160597155</v>
+        <v>1.030424066865344</v>
       </c>
       <c r="K9">
-        <v>1.026847802537952</v>
+        <v>1.03218238102849</v>
       </c>
       <c r="L9">
-        <v>1.016562581055532</v>
+        <v>1.028270441906977</v>
       </c>
       <c r="N9">
-        <v>1.022968833554974</v>
+        <v>1.031887387231586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9899554964914381</v>
+        <v>1.023395870090867</v>
       </c>
       <c r="D10">
-        <v>1.010003635599467</v>
+        <v>1.028175579302719</v>
       </c>
       <c r="E10">
-        <v>0.9990190407514875</v>
+        <v>1.024101742639391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038694857131925</v>
+        <v>1.032089552736406</v>
       </c>
       <c r="J10">
-        <v>1.01857338206697</v>
+        <v>1.029815933159764</v>
       </c>
       <c r="K10">
-        <v>1.024194590199804</v>
+        <v>1.031649368538103</v>
       </c>
       <c r="L10">
-        <v>1.013406029337188</v>
+        <v>1.027590397965151</v>
       </c>
       <c r="N10">
-        <v>1.020019873101505</v>
+        <v>1.03127838990639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9873577040948758</v>
+        <v>1.022896021981507</v>
       </c>
       <c r="D11">
-        <v>1.008247529211689</v>
+        <v>1.027820642316063</v>
       </c>
       <c r="E11">
-        <v>0.9970298072397749</v>
+        <v>1.023682907367542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038060840743468</v>
+        <v>1.032000089360907</v>
       </c>
       <c r="J11">
-        <v>1.017266041774926</v>
+        <v>1.029552576022875</v>
       </c>
       <c r="K11">
-        <v>1.023015567436346</v>
+        <v>1.031418335343552</v>
       </c>
       <c r="L11">
-        <v>1.012007955266113</v>
+        <v>1.027296281192752</v>
       </c>
       <c r="N11">
-        <v>1.018710676236292</v>
+        <v>1.031014658772159</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9863833924570861</v>
+        <v>1.022710481867348</v>
       </c>
       <c r="D12">
-        <v>1.00758972315882</v>
+        <v>1.027688902807964</v>
       </c>
       <c r="E12">
-        <v>0.9962850593680155</v>
+        <v>1.023527516472392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037821698712566</v>
+        <v>1.031966694878572</v>
       </c>
       <c r="J12">
-        <v>1.016775424343281</v>
+        <v>1.029454750196236</v>
       </c>
       <c r="K12">
-        <v>1.022572946415006</v>
+        <v>1.031332485364403</v>
       </c>
       <c r="L12">
-        <v>1.01148377954671</v>
+        <v>1.027187086792539</v>
       </c>
       <c r="N12">
-        <v>1.01821936207162</v>
+        <v>1.030916694021625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9865928164037696</v>
+        <v>1.022750275129198</v>
       </c>
       <c r="D13">
-        <v>1.007731077318998</v>
+        <v>1.027717156827102</v>
       </c>
       <c r="E13">
-        <v>0.9964450791446052</v>
+        <v>1.023560840023811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037873161697234</v>
+        <v>1.031973865508549</v>
       </c>
       <c r="J13">
-        <v>1.016880893137718</v>
+        <v>1.029475734292682</v>
       </c>
       <c r="K13">
-        <v>1.02266810433924</v>
+        <v>1.031350901991121</v>
       </c>
       <c r="L13">
-        <v>1.011596440189724</v>
+        <v>1.027210506908432</v>
       </c>
       <c r="N13">
-        <v>1.018324980643843</v>
+        <v>1.030937707917895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9872773607920151</v>
+        <v>1.022880682601081</v>
       </c>
       <c r="D14">
-        <v>1.008193268304167</v>
+        <v>1.027809750637851</v>
       </c>
       <c r="E14">
-        <v>0.9969683669920753</v>
+        <v>1.023670058958711</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038041147978039</v>
+        <v>1.031997332299682</v>
       </c>
       <c r="J14">
-        <v>1.017225590467564</v>
+        <v>1.029544489767758</v>
       </c>
       <c r="K14">
-        <v>1.022979076585356</v>
+        <v>1.03141123964236</v>
       </c>
       <c r="L14">
-        <v>1.011964727080919</v>
+        <v>1.027287254045753</v>
       </c>
       <c r="N14">
-        <v>1.018670167483434</v>
+        <v>1.031006561033632</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9876978767330156</v>
+        <v>1.022961047670247</v>
       </c>
       <c r="D15">
-        <v>1.008477303394181</v>
+        <v>1.027866814037356</v>
       </c>
       <c r="E15">
-        <v>0.9972899987362648</v>
+        <v>1.023737376684966</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038144164772835</v>
+        <v>1.032011769281665</v>
       </c>
       <c r="J15">
-        <v>1.017437300338383</v>
+        <v>1.029586851895979</v>
       </c>
       <c r="K15">
-        <v>1.023170052227901</v>
+        <v>1.031448411201447</v>
       </c>
       <c r="L15">
-        <v>1.012190990356729</v>
+        <v>1.027334547648038</v>
       </c>
       <c r="N15">
-        <v>1.018882178006553</v>
+        <v>1.031048983320934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9901266105249459</v>
+        <v>1.02342906088283</v>
       </c>
       <c r="D16">
-        <v>1.010119420665032</v>
+        <v>1.028199149199883</v>
       </c>
       <c r="E16">
-        <v>0.9991502507532588</v>
+        <v>1.024129564927879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038736429236409</v>
+        <v>1.032095467113491</v>
       </c>
       <c r="J16">
-        <v>1.01865945249461</v>
+        <v>1.029833410769892</v>
       </c>
       <c r="K16">
-        <v>1.024272190105227</v>
+        <v>1.031664696611555</v>
       </c>
       <c r="L16">
-        <v>1.013498141738671</v>
+        <v>1.027609924966269</v>
       </c>
       <c r="N16">
-        <v>1.020106065759025</v>
+        <v>1.031295892336729</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9916338104640822</v>
+        <v>1.023722855050418</v>
       </c>
       <c r="D17">
-        <v>1.011139868306936</v>
+        <v>1.028407790116221</v>
       </c>
       <c r="E17">
-        <v>1.000306944670026</v>
+        <v>1.024375898383047</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039101551714195</v>
+        <v>1.032147675837439</v>
       </c>
       <c r="J17">
-        <v>1.019417329275562</v>
+        <v>1.029988063287888</v>
       </c>
       <c r="K17">
-        <v>1.024955354427453</v>
+        <v>1.031800304723636</v>
       </c>
       <c r="L17">
-        <v>1.014309594174042</v>
+        <v>1.027782755824914</v>
       </c>
       <c r="N17">
-        <v>1.020865018811936</v>
+        <v>1.031450764479039</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9925071920237603</v>
+        <v>1.023894299507586</v>
       </c>
       <c r="D18">
-        <v>1.011731676417871</v>
+        <v>1.028529549559864</v>
       </c>
       <c r="E18">
-        <v>1.000978023112903</v>
+        <v>1.024519696648366</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039312247240676</v>
+        <v>1.032178022568529</v>
       </c>
       <c r="J18">
-        <v>1.019856288068944</v>
+        <v>1.030078266376028</v>
       </c>
       <c r="K18">
-        <v>1.025350932570847</v>
+        <v>1.031879379848472</v>
       </c>
       <c r="L18">
-        <v>1.014779895932105</v>
+        <v>1.027883598491105</v>
       </c>
       <c r="N18">
-        <v>1.021304600977153</v>
+        <v>1.03154109566591</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9928040300400175</v>
+        <v>1.023952771023465</v>
       </c>
       <c r="D19">
-        <v>1.011932896371796</v>
+        <v>1.028571076961975</v>
       </c>
       <c r="E19">
-        <v>1.001206239292999</v>
+        <v>1.024568747773403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039383705847233</v>
+        <v>1.032188352062138</v>
       </c>
       <c r="J19">
-        <v>1.020005441246619</v>
+        <v>1.030109022727081</v>
       </c>
       <c r="K19">
-        <v>1.025485326952401</v>
+        <v>1.031906338514437</v>
       </c>
       <c r="L19">
-        <v>1.014939752083093</v>
+        <v>1.027917988843253</v>
       </c>
       <c r="N19">
-        <v>1.021453965969449</v>
+        <v>1.03157189569451</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9914726989249313</v>
+        <v>1.023691325500565</v>
       </c>
       <c r="D20">
-        <v>1.011030737147773</v>
+        <v>1.028385398417806</v>
       </c>
       <c r="E20">
-        <v>1.000183216478018</v>
+        <v>1.024349457107528</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039062613391873</v>
+        <v>1.03214208526658</v>
       </c>
       <c r="J20">
-        <v>1.019336337905365</v>
+        <v>1.029971470847588</v>
       </c>
       <c r="K20">
-        <v>1.024882358369208</v>
+        <v>1.031785757604173</v>
       </c>
       <c r="L20">
-        <v>1.014222845009853</v>
+        <v>1.027764209248522</v>
       </c>
       <c r="N20">
-        <v>1.020783912424703</v>
+        <v>1.031434148475571</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9870760415994799</v>
+        <v>1.022842277363705</v>
       </c>
       <c r="D21">
-        <v>1.00805731827204</v>
+        <v>1.027782481294795</v>
       </c>
       <c r="E21">
-        <v>0.9968144353393918</v>
+        <v>1.023637891631055</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037991781430288</v>
+        <v>1.031990426430204</v>
       </c>
       <c r="J21">
-        <v>1.017124225495275</v>
+        <v>1.029524243072537</v>
       </c>
       <c r="K21">
-        <v>1.022887633410804</v>
+        <v>1.031393472634426</v>
       </c>
       <c r="L21">
-        <v>1.011856411593451</v>
+        <v>1.027264652432681</v>
       </c>
       <c r="N21">
-        <v>1.018568658561258</v>
+        <v>1.030986285585781</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842572333517934</v>
+        <v>1.022309175548938</v>
       </c>
       <c r="D22">
-        <v>1.006155830678132</v>
+        <v>1.027403982306817</v>
       </c>
       <c r="E22">
-        <v>0.9946623365519358</v>
+        <v>1.023191563008209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037297398609682</v>
+        <v>1.031894125172939</v>
       </c>
       <c r="J22">
-        <v>1.015704287584311</v>
+        <v>1.029243035065816</v>
       </c>
       <c r="K22">
-        <v>1.021606317841891</v>
+        <v>1.031146631682071</v>
       </c>
       <c r="L22">
-        <v>1.010340280411664</v>
+        <v>1.026950872497322</v>
       </c>
       <c r="N22">
-        <v>1.017146704175591</v>
+        <v>1.030704678231436</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9857568348747815</v>
+        <v>1.022591713173873</v>
       </c>
       <c r="D23">
-        <v>1.007166943368667</v>
+        <v>1.027604576235582</v>
       </c>
       <c r="E23">
-        <v>0.9958065070564999</v>
+        <v>1.023428068992368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037667535929665</v>
+        <v>1.031945265833438</v>
       </c>
       <c r="J23">
-        <v>1.016459840760253</v>
+        <v>1.029392109994007</v>
       </c>
       <c r="K23">
-        <v>1.022288192589308</v>
+        <v>1.031277504841903</v>
       </c>
       <c r="L23">
-        <v>1.011146748580658</v>
+        <v>1.027117183150271</v>
       </c>
       <c r="N23">
-        <v>1.017903330323706</v>
+        <v>1.030853964863124</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9915455160131812</v>
+        <v>1.02370557210225</v>
       </c>
       <c r="D24">
-        <v>1.01108005932017</v>
+        <v>1.028395516068939</v>
       </c>
       <c r="E24">
-        <v>1.000239135036369</v>
+        <v>1.024361404423259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039080214965381</v>
+        <v>1.032144611731711</v>
       </c>
       <c r="J24">
-        <v>1.019372943980765</v>
+        <v>1.029978968266946</v>
       </c>
       <c r="K24">
-        <v>1.024915351097488</v>
+        <v>1.031792330891897</v>
       </c>
       <c r="L24">
-        <v>1.014262052496545</v>
+        <v>1.027772589545232</v>
       </c>
       <c r="N24">
-        <v>1.020820570484929</v>
+        <v>1.031441656542124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9980389017857522</v>
+        <v>1.025001246356377</v>
       </c>
       <c r="D25">
-        <v>1.015488172750956</v>
+        <v>1.029315811086175</v>
       </c>
       <c r="E25">
-        <v>1.005242379955084</v>
+        <v>1.025449036023195</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040630613496448</v>
+        <v>1.03237179106008</v>
       </c>
       <c r="J25">
-        <v>1.022632445432704</v>
+        <v>1.030659857476102</v>
       </c>
       <c r="K25">
-        <v>1.027850720096535</v>
+        <v>1.032388858745904</v>
       </c>
       <c r="L25">
-        <v>1.017759856195368</v>
+        <v>1.028534454763477</v>
       </c>
       <c r="N25">
-        <v>1.0240847008028</v>
+        <v>1.032123512692056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_202/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026037100109277</v>
+        <v>1.003050582950998</v>
       </c>
       <c r="D2">
-        <v>1.03005174074101</v>
+        <v>1.018903489963102</v>
       </c>
       <c r="E2">
-        <v>1.026320117792564</v>
+        <v>1.009127273438524</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032549613526556</v>
+        <v>1.04179850270475</v>
       </c>
       <c r="J2">
-        <v>1.031202777825712</v>
+        <v>1.025140432879403</v>
       </c>
       <c r="K2">
-        <v>1.032863871900083</v>
+        <v>1.030105604131352</v>
       </c>
       <c r="L2">
-        <v>1.02914310931884</v>
+        <v>1.020460898667356</v>
       </c>
       <c r="N2">
-        <v>1.032667204050842</v>
+        <v>1.026596249879343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0267905934845</v>
+        <v>1.00659850219245</v>
       </c>
       <c r="D3">
-        <v>1.030587159621844</v>
+        <v>1.021328002684853</v>
       </c>
       <c r="E3">
-        <v>1.026954644493895</v>
+        <v>1.011890311438743</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032676756920272</v>
+        <v>1.042608030127473</v>
       </c>
       <c r="J3">
-        <v>1.031596870503527</v>
+        <v>1.026910887520828</v>
       </c>
       <c r="K3">
-        <v>1.033208298636306</v>
+        <v>1.03169507112865</v>
       </c>
       <c r="L3">
-        <v>1.029585594238767</v>
+        <v>1.022373280880673</v>
       </c>
       <c r="N3">
-        <v>1.033061856385457</v>
+        <v>1.028369218769433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027278776838372</v>
+        <v>1.008854015490452</v>
       </c>
       <c r="D4">
-        <v>1.030934093976628</v>
+        <v>1.022872168628619</v>
       </c>
       <c r="E4">
-        <v>1.027366159003453</v>
+        <v>1.013652566918308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03275811027529</v>
+        <v>1.043114475946377</v>
       </c>
       <c r="J4">
-        <v>1.031851812767169</v>
+        <v>1.028033914677538</v>
       </c>
       <c r="K4">
-        <v>1.033430937701247</v>
+        <v>1.032702166631034</v>
       </c>
       <c r="L4">
-        <v>1.029872155688618</v>
+        <v>1.023588963328487</v>
       </c>
       <c r="N4">
-        <v>1.033317160696356</v>
+        <v>1.029493840753518</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027484156211686</v>
+        <v>1.009792868197753</v>
       </c>
       <c r="D5">
-        <v>1.031080058759029</v>
+        <v>1.023515565571815</v>
       </c>
       <c r="E5">
-        <v>1.027539381090952</v>
+        <v>1.014387442585148</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032792090962818</v>
+        <v>1.043323286423993</v>
       </c>
       <c r="J5">
-        <v>1.031958974245698</v>
+        <v>1.028500746601367</v>
       </c>
       <c r="K5">
-        <v>1.033524479218846</v>
+        <v>1.033120527620526</v>
       </c>
       <c r="L5">
-        <v>1.029992683042867</v>
+        <v>1.024094944726641</v>
       </c>
       <c r="N5">
-        <v>1.033424474356476</v>
+        <v>1.029961335632225</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027518648879618</v>
+        <v>1.009949964051382</v>
       </c>
       <c r="D6">
-        <v>1.031104573492119</v>
+        <v>1.023623260123658</v>
       </c>
       <c r="E6">
-        <v>1.027568478764328</v>
+        <v>1.014510485398362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032797783531667</v>
+        <v>1.04335810792288</v>
       </c>
       <c r="J6">
-        <v>1.031976966136061</v>
+        <v>1.028578822888991</v>
       </c>
       <c r="K6">
-        <v>1.033540181931418</v>
+        <v>1.03319048062311</v>
       </c>
       <c r="L6">
-        <v>1.030012923409556</v>
+        <v>1.024179605982876</v>
       </c>
       <c r="N6">
-        <v>1.033442491797387</v>
+        <v>1.030039522797134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027281520552146</v>
+        <v>1.008866596939644</v>
       </c>
       <c r="D7">
-        <v>1.030936043921352</v>
+        <v>1.022880788231316</v>
       </c>
       <c r="E7">
-        <v>1.027368472738143</v>
+        <v>1.013662409643603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032758565193318</v>
+        <v>1.043117282111993</v>
       </c>
       <c r="J7">
-        <v>1.03185324472969</v>
+        <v>1.028040173138576</v>
       </c>
       <c r="K7">
-        <v>1.033432187829103</v>
+        <v>1.032707776393246</v>
       </c>
       <c r="L7">
-        <v>1.02987376595928</v>
+        <v>1.023595744130245</v>
       </c>
       <c r="N7">
-        <v>1.033318594692428</v>
+        <v>1.029500108102289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026291616576448</v>
+        <v>1.004258111524015</v>
       </c>
       <c r="D8">
-        <v>1.030232586980806</v>
+        <v>1.019728051784744</v>
       </c>
       <c r="E8">
-        <v>1.026534364585581</v>
+        <v>1.010066454392851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032592771635563</v>
+        <v>1.042075720139894</v>
       </c>
       <c r="J8">
-        <v>1.031335975301738</v>
+        <v>1.025743511962076</v>
       </c>
       <c r="K8">
-        <v>1.032980318941569</v>
+        <v>1.0306472637721</v>
       </c>
       <c r="L8">
-        <v>1.02929259770862</v>
+        <v>1.021111774028181</v>
       </c>
       <c r="N8">
-        <v>1.032800590682556</v>
+        <v>1.027200185403487</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024552137262274</v>
+        <v>0.9958168134850593</v>
       </c>
       <c r="D9">
-        <v>1.028996787340949</v>
+        <v>1.013977501931354</v>
       </c>
       <c r="E9">
-        <v>1.025071797908159</v>
+        <v>1.003526460273667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032293632875526</v>
+        <v>1.040104490725003</v>
       </c>
       <c r="J9">
-        <v>1.030424066865344</v>
+        <v>1.021518160597155</v>
       </c>
       <c r="K9">
-        <v>1.03218238102849</v>
+        <v>1.026847802537951</v>
       </c>
       <c r="L9">
-        <v>1.028270441906977</v>
+        <v>1.016562581055531</v>
       </c>
       <c r="N9">
-        <v>1.031887387231586</v>
+        <v>1.022968833554973</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023395870090867</v>
+        <v>0.9899554964914374</v>
       </c>
       <c r="D10">
-        <v>1.028175579302719</v>
+        <v>1.010003635599467</v>
       </c>
       <c r="E10">
-        <v>1.024101742639391</v>
+        <v>0.9990190407514864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032089552736406</v>
+        <v>1.038694857131924</v>
       </c>
       <c r="J10">
-        <v>1.029815933159764</v>
+        <v>1.01857338206697</v>
       </c>
       <c r="K10">
-        <v>1.031649368538103</v>
+        <v>1.024194590199804</v>
       </c>
       <c r="L10">
-        <v>1.027590397965151</v>
+        <v>1.013406029337187</v>
       </c>
       <c r="N10">
-        <v>1.03127838990639</v>
+        <v>1.020019873101504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022896021981507</v>
+        <v>0.9873577040948746</v>
       </c>
       <c r="D11">
-        <v>1.027820642316063</v>
+        <v>1.008247529211688</v>
       </c>
       <c r="E11">
-        <v>1.023682907367542</v>
+        <v>0.9970298072397737</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032000089360907</v>
+        <v>1.038060840743467</v>
       </c>
       <c r="J11">
-        <v>1.029552576022875</v>
+        <v>1.017266041774925</v>
       </c>
       <c r="K11">
-        <v>1.031418335343552</v>
+        <v>1.023015567436345</v>
       </c>
       <c r="L11">
-        <v>1.027296281192752</v>
+        <v>1.012007955266112</v>
       </c>
       <c r="N11">
-        <v>1.031014658772159</v>
+        <v>1.018710676236291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022710481867348</v>
+        <v>0.9863833924570858</v>
       </c>
       <c r="D12">
-        <v>1.027688902807964</v>
+        <v>1.00758972315882</v>
       </c>
       <c r="E12">
-        <v>1.023527516472392</v>
+        <v>0.9962850593680155</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031966694878572</v>
+        <v>1.037821698712566</v>
       </c>
       <c r="J12">
-        <v>1.029454750196236</v>
+        <v>1.016775424343281</v>
       </c>
       <c r="K12">
-        <v>1.031332485364403</v>
+        <v>1.022572946415006</v>
       </c>
       <c r="L12">
-        <v>1.027187086792539</v>
+        <v>1.01148377954671</v>
       </c>
       <c r="N12">
-        <v>1.030916694021625</v>
+        <v>1.01821936207162</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022750275129198</v>
+        <v>0.9865928164037697</v>
       </c>
       <c r="D13">
-        <v>1.027717156827102</v>
+        <v>1.007731077318998</v>
       </c>
       <c r="E13">
-        <v>1.023560840023811</v>
+        <v>0.9964450791446051</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031973865508549</v>
+        <v>1.037873161697234</v>
       </c>
       <c r="J13">
-        <v>1.029475734292682</v>
+        <v>1.016880893137718</v>
       </c>
       <c r="K13">
-        <v>1.031350901991121</v>
+        <v>1.02266810433924</v>
       </c>
       <c r="L13">
-        <v>1.027210506908432</v>
+        <v>1.011596440189724</v>
       </c>
       <c r="N13">
-        <v>1.030937707917895</v>
+        <v>1.018324980643843</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022880682601081</v>
+        <v>0.9872773607920144</v>
       </c>
       <c r="D14">
-        <v>1.027809750637851</v>
+        <v>1.008193268304167</v>
       </c>
       <c r="E14">
-        <v>1.023670058958711</v>
+        <v>0.9969683669920744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031997332299682</v>
+        <v>1.038041147978039</v>
       </c>
       <c r="J14">
-        <v>1.029544489767758</v>
+        <v>1.017225590467564</v>
       </c>
       <c r="K14">
-        <v>1.03141123964236</v>
+        <v>1.022979076585355</v>
       </c>
       <c r="L14">
-        <v>1.027287254045753</v>
+        <v>1.011964727080918</v>
       </c>
       <c r="N14">
-        <v>1.031006561033632</v>
+        <v>1.018670167483434</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022961047670247</v>
+        <v>0.9876978767330155</v>
       </c>
       <c r="D15">
-        <v>1.027866814037356</v>
+        <v>1.008477303394181</v>
       </c>
       <c r="E15">
-        <v>1.023737376684966</v>
+        <v>0.9972899987362649</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032011769281665</v>
+        <v>1.038144164772835</v>
       </c>
       <c r="J15">
-        <v>1.029586851895979</v>
+        <v>1.017437300338383</v>
       </c>
       <c r="K15">
-        <v>1.031448411201447</v>
+        <v>1.023170052227901</v>
       </c>
       <c r="L15">
-        <v>1.027334547648038</v>
+        <v>1.012190990356729</v>
       </c>
       <c r="N15">
-        <v>1.031048983320934</v>
+        <v>1.018882178006553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02342906088283</v>
+        <v>0.9901266105249457</v>
       </c>
       <c r="D16">
-        <v>1.028199149199883</v>
+        <v>1.010119420665032</v>
       </c>
       <c r="E16">
-        <v>1.024129564927879</v>
+        <v>0.9991502507532586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032095467113491</v>
+        <v>1.038736429236409</v>
       </c>
       <c r="J16">
-        <v>1.029833410769892</v>
+        <v>1.01865945249461</v>
       </c>
       <c r="K16">
-        <v>1.031664696611555</v>
+        <v>1.024272190105227</v>
       </c>
       <c r="L16">
-        <v>1.027609924966269</v>
+        <v>1.013498141738671</v>
       </c>
       <c r="N16">
-        <v>1.031295892336729</v>
+        <v>1.020106065759025</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023722855050418</v>
+        <v>0.9916338104640818</v>
       </c>
       <c r="D17">
-        <v>1.028407790116221</v>
+        <v>1.011139868306936</v>
       </c>
       <c r="E17">
-        <v>1.024375898383047</v>
+        <v>1.000306944670025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032147675837439</v>
+        <v>1.039101551714194</v>
       </c>
       <c r="J17">
-        <v>1.029988063287888</v>
+        <v>1.019417329275562</v>
       </c>
       <c r="K17">
-        <v>1.031800304723636</v>
+        <v>1.024955354427453</v>
       </c>
       <c r="L17">
-        <v>1.027782755824914</v>
+        <v>1.014309594174042</v>
       </c>
       <c r="N17">
-        <v>1.031450764479039</v>
+        <v>1.020865018811935</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023894299507586</v>
+        <v>0.992507192023759</v>
       </c>
       <c r="D18">
-        <v>1.028529549559864</v>
+        <v>1.01173167641787</v>
       </c>
       <c r="E18">
-        <v>1.024519696648366</v>
+        <v>1.000978023112902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032178022568529</v>
+        <v>1.039312247240676</v>
       </c>
       <c r="J18">
-        <v>1.030078266376028</v>
+        <v>1.019856288068943</v>
       </c>
       <c r="K18">
-        <v>1.031879379848472</v>
+        <v>1.025350932570847</v>
       </c>
       <c r="L18">
-        <v>1.027883598491105</v>
+        <v>1.014779895932104</v>
       </c>
       <c r="N18">
-        <v>1.03154109566591</v>
+        <v>1.021304600977152</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023952771023465</v>
+        <v>0.992804030040017</v>
       </c>
       <c r="D19">
-        <v>1.028571076961975</v>
+        <v>1.011932896371796</v>
       </c>
       <c r="E19">
-        <v>1.024568747773403</v>
+        <v>1.001206239292999</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032188352062138</v>
+        <v>1.039383705847233</v>
       </c>
       <c r="J19">
-        <v>1.030109022727081</v>
+        <v>1.020005441246619</v>
       </c>
       <c r="K19">
-        <v>1.031906338514437</v>
+        <v>1.025485326952401</v>
       </c>
       <c r="L19">
-        <v>1.027917988843253</v>
+        <v>1.014939752083093</v>
       </c>
       <c r="N19">
-        <v>1.03157189569451</v>
+        <v>1.021453965969448</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023691325500565</v>
+        <v>0.991472698924931</v>
       </c>
       <c r="D20">
-        <v>1.028385398417806</v>
+        <v>1.011030737147773</v>
       </c>
       <c r="E20">
-        <v>1.024349457107528</v>
+        <v>1.000183216478018</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03214208526658</v>
+        <v>1.039062613391873</v>
       </c>
       <c r="J20">
-        <v>1.029971470847588</v>
+        <v>1.019336337905365</v>
       </c>
       <c r="K20">
-        <v>1.031785757604173</v>
+        <v>1.024882358369207</v>
       </c>
       <c r="L20">
-        <v>1.027764209248522</v>
+        <v>1.014222845009853</v>
       </c>
       <c r="N20">
-        <v>1.031434148475571</v>
+        <v>1.020783912424703</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022842277363705</v>
+        <v>0.9870760415994793</v>
       </c>
       <c r="D21">
-        <v>1.027782481294795</v>
+        <v>1.00805731827204</v>
       </c>
       <c r="E21">
-        <v>1.023637891631055</v>
+        <v>0.9968144353393912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031990426430204</v>
+        <v>1.037991781430288</v>
       </c>
       <c r="J21">
-        <v>1.029524243072537</v>
+        <v>1.017124225495275</v>
       </c>
       <c r="K21">
-        <v>1.031393472634426</v>
+        <v>1.022887633410804</v>
       </c>
       <c r="L21">
-        <v>1.027264652432681</v>
+        <v>1.011856411593451</v>
       </c>
       <c r="N21">
-        <v>1.030986285585781</v>
+        <v>1.018568658561257</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022309175548938</v>
+        <v>0.9842572333517928</v>
       </c>
       <c r="D22">
-        <v>1.027403982306817</v>
+        <v>1.006155830678132</v>
       </c>
       <c r="E22">
-        <v>1.023191563008209</v>
+        <v>0.9946623365519354</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031894125172939</v>
+        <v>1.037297398609682</v>
       </c>
       <c r="J22">
-        <v>1.029243035065816</v>
+        <v>1.015704287584311</v>
       </c>
       <c r="K22">
-        <v>1.031146631682071</v>
+        <v>1.021606317841891</v>
       </c>
       <c r="L22">
-        <v>1.026950872497322</v>
+        <v>1.010340280411663</v>
       </c>
       <c r="N22">
-        <v>1.030704678231436</v>
+        <v>1.017146704175591</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022591713173873</v>
+        <v>0.9857568348747824</v>
       </c>
       <c r="D23">
-        <v>1.027604576235582</v>
+        <v>1.007166943368668</v>
       </c>
       <c r="E23">
-        <v>1.023428068992368</v>
+        <v>0.9958065070565008</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031945265833438</v>
+        <v>1.037667535929665</v>
       </c>
       <c r="J23">
-        <v>1.029392109994007</v>
+        <v>1.016459840760254</v>
       </c>
       <c r="K23">
-        <v>1.031277504841903</v>
+        <v>1.022288192589309</v>
       </c>
       <c r="L23">
-        <v>1.027117183150271</v>
+        <v>1.011146748580658</v>
       </c>
       <c r="N23">
-        <v>1.030853964863124</v>
+        <v>1.017903330323707</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02370557210225</v>
+        <v>0.9915455160131806</v>
       </c>
       <c r="D24">
-        <v>1.028395516068939</v>
+        <v>1.01108005932017</v>
       </c>
       <c r="E24">
-        <v>1.024361404423259</v>
+        <v>1.000239135036368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032144611731711</v>
+        <v>1.039080214965381</v>
       </c>
       <c r="J24">
-        <v>1.029978968266946</v>
+        <v>1.019372943980765</v>
       </c>
       <c r="K24">
-        <v>1.031792330891897</v>
+        <v>1.024915351097488</v>
       </c>
       <c r="L24">
-        <v>1.027772589545232</v>
+        <v>1.014262052496545</v>
       </c>
       <c r="N24">
-        <v>1.031441656542124</v>
+        <v>1.020820570484929</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025001246356377</v>
+        <v>0.9980389017857522</v>
       </c>
       <c r="D25">
-        <v>1.029315811086175</v>
+        <v>1.015488172750956</v>
       </c>
       <c r="E25">
-        <v>1.025449036023195</v>
+        <v>1.005242379955084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03237179106008</v>
+        <v>1.040630613496448</v>
       </c>
       <c r="J25">
-        <v>1.030659857476102</v>
+        <v>1.022632445432704</v>
       </c>
       <c r="K25">
-        <v>1.032388858745904</v>
+        <v>1.027850720096535</v>
       </c>
       <c r="L25">
-        <v>1.028534454763477</v>
+        <v>1.017759856195368</v>
       </c>
       <c r="N25">
-        <v>1.032123512692056</v>
+        <v>1.0240847008028</v>
       </c>
     </row>
   </sheetData>
